--- a/biology/Zoologie/Hynobius_naevius/Hynobius_naevius.xlsx
+++ b/biology/Zoologie/Hynobius_naevius/Hynobius_naevius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hynobius naevius est une espèce d'urodèles de la famille des Hynobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hynobius naevius est une espèce d'urodèles de la famille des Hynobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Kyūshū au Japon. Elle se rencontre dans le nord-ouest de l'île de 300 à 1 000 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Kyūshū au Japon. Elle se rencontre dans le nord-ouest de l'île de 300 à 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hynobius naevius mesure de 48 à 87 mm sans la queue et de 88 à 155 mm de longueur totale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hynobius naevius mesure de 48 à 87 mm sans la queue et de 88 à 155 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Temminck &amp; Schlegel, 1838 : Fauna Japonica sive Descriptio animalium, quae in itinere per Japonianum, jussu et auspiciis superiorum, qui summum in India Batava Imperium tenent, suscepto, annis 1823–1830 colleget, notis observationibus et adumbrationibus illustratis. vol. 3, Chelonia, Ophidia, Sauria, Batrachia, p. 85-144.</t>
         </is>
